--- a/GameMasterGuide/Languages/akkadian.xlsx
+++ b/GameMasterGuide/Languages/akkadian.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t xml:space="preserve">Unicode</t>
   </si>
@@ -179,6 +179,102 @@
   </si>
   <si>
     <t xml:space="preserve">kkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1227D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1222C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1223E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121B0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
   </si>
 </sst>
 </file>
@@ -194,6 +290,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -283,10 +380,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -714,6 +811,255 @@
         <v>\def\kkkk{\symbol{"121B7}}</v>
       </c>
     </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B29,"{\symbol{",CHAR(34),A29,"}}")</f>
+        <v>\def\kkkkk{\symbol{"12033}}</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B30,"{\symbol{",CHAR(34),A30,"}}")</f>
+        <v>\def\l{\symbol{"1227D}}</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B31,"{\symbol{",CHAR(34),A31,"}}")</f>
+        <v>\def\ll{\symbol{"1222C}}</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B32,"{\symbol{",CHAR(34),A32,"}}")</f>
+        <v>\def\lll{\symbol{"122E1}}</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B33,"{\symbol{",CHAR(34),A33,"}}")</f>
+        <v>\def\m{\symbol{"12363}}</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B34,"{\symbol{",CHAR(34),A34,"}}")</f>
+        <v>\def\mm{\symbol{"12364}}</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B35,"{\symbol{",CHAR(34),A35,"}}")</f>
+        <v>\def\mmm{\symbol{"12103}}</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B36,"{\symbol{",CHAR(34),A36,"}}")</f>
+        <v>\def\n{\symbol{"122FA}}</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B37,"{\symbol{",CHAR(34),A37,"}}")</f>
+        <v>\def\nn{\symbol{"1223E}}</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B38,"{\symbol{",CHAR(34),A38,"}}")</f>
+        <v>\def\nnn{\symbol{"12292}}</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B39,"{\symbol{",CHAR(34),A39,"}}")</f>
+        <v>\def\o{\symbol{"121B0}}</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B40,"{\symbol{",CHAR(34),A40,"}}")</f>
+        <v>\def\oo{\symbol{"122FE}}</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B41,"{\symbol{",CHAR(34),A41,"}}")</f>
+        <v>\def\ooo{\symbol{"12077}}</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B42,"{\symbol{",CHAR(34),A42,"}}")</f>
+        <v>\def\{\symbol{"}}</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B43,"{\symbol{",CHAR(34),A43,"}}")</f>
+        <v>\def\{\symbol{"}}</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B44,"{\symbol{",CHAR(34),A44,"}}")</f>
+        <v>\def\{\symbol{"}}</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B45,"{\symbol{",CHAR(34),A45,"}}")</f>
+        <v>\def\{\symbol{"}}</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B46,"{\symbol{",CHAR(34),A46,"}}")</f>
+        <v>\def\PC{\symbol{"12041}}</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT("\def\",B47,"{\symbol{",CHAR(34),A47,"}}")</f>
+        <v>\def\PD{\symbol{"122D3}}</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
